--- a/Bird ID.xlsx
+++ b/Bird ID.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="576">
   <si>
     <t>Bird ID</t>
   </si>
@@ -280,7 +280,7 @@
     <t>file:///storage/emulated/0/memento/files/940088960/2022-09-19 11.39.24.jpg</t>
   </si>
   <si>
-    <t>calm</t>
+    <t xml:space="preserve"> not the breeding adult!</t>
   </si>
   <si>
     <t>https://drive.google.com/uc?id=1tCybm2yiIYuipP5RZnv6NG3u6n7edjLd</t>
@@ -815,7 +815,7 @@
     <t>JWpkdzE7PFp3RXVsazdrcXZrNEM</t>
   </si>
   <si>
-    <t>951800015807251519</t>
+    <t>956000015817253</t>
   </si>
   <si>
     <t>file:///storage/emulated/0/memento/files/940088960/2022-09-29 14.11.11.jpg</t>
@@ -1397,6 +1397,9 @@
     <t>file:///storage/emulated/0/memento/files/940088960/2022-10-10 14.09.14.jpg</t>
   </si>
   <si>
+    <t>IB or LB morph</t>
+  </si>
+  <si>
     <t>https://drive.google.com/uc?id=1DgSk0CeK9uUdpUEjxYgWwFDTq3uwhOQG</t>
   </si>
   <si>
@@ -1443,6 +1446,303 @@
   </si>
   <si>
     <t>V3d5SnR1R2NLZ1Q5KiU7eDdAWSg</t>
+  </si>
+  <si>
+    <t>956000015813618</t>
+  </si>
+  <si>
+    <t>-43.87055,173.0093483</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-11 10.53.40.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1iN3p1tzT0KYR-b5QcwOe1BhldMxb7HHr</t>
+  </si>
+  <si>
+    <t>SVdaYXAhI25mNUx5Z1RDXUN2Pj4</t>
+  </si>
+  <si>
+    <t>956000015820172</t>
+  </si>
+  <si>
+    <t>-43.8705683,173.0092417</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-11 11.06.15.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubating eggs </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1BdZyRksgTE0Ad94Y5kJgFhtfFtp3T737</t>
+  </si>
+  <si>
+    <t>Vyt6bW9UaEZSRDNiTElSal1OaSM</t>
+  </si>
+  <si>
+    <t>956000015835159</t>
+  </si>
+  <si>
+    <t>-43.86982,173.009305</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-11 11.47.22.jpg</t>
+  </si>
+  <si>
+    <t>IB very small bird. not a lot of fat but pinch test ok. needs to go to sea for a feed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ZuwQJN3WqcUHuh39nhp3J6-XN-_TcQIk</t>
+  </si>
+  <si>
+    <t>UWVkWWFOUWJFRlpKIVRFVUZNRDc</t>
+  </si>
+  <si>
+    <t>956000015710654</t>
+  </si>
+  <si>
+    <t>-43.8702367,173.0093633</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-11 11.58.11.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1c6qaUj-8C2oS8-vBHnd0njPoh7bwc8l5</t>
+  </si>
+  <si>
+    <t>WXUrPkhKOCs1UmJOWk05KSo7O3Q</t>
+  </si>
+  <si>
+    <t>956000015833335</t>
+  </si>
+  <si>
+    <t>-43.8690183,173.00944</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-11 13.23.21.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super angry </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1f-8RFdvRfRYVpFJS5as_AQrUb-PAAMfa</t>
+  </si>
+  <si>
+    <t>QC07OGZ2Wk12Q0JCTGNpU2hPc24</t>
+  </si>
+  <si>
+    <t>956000015722256</t>
+  </si>
+  <si>
+    <t>-43.867335,173.00802</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-11 14.31.50.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1mP8Xw0KPa46BFj2r29C88cxgIOs5Sv2c</t>
+  </si>
+  <si>
+    <t>Q0BaUkVhaVJNRjJwZV0rUzc3aUU</t>
+  </si>
+  <si>
+    <t>956000015691196</t>
+  </si>
+  <si>
+    <t>-43.867366,173.0083196</t>
+  </si>
+  <si>
+    <t>the grumpiest penguin in the world. loud, squirmy, agro</t>
+  </si>
+  <si>
+    <t>KkQoMDk7d21XaTRvKUlIKmlkekU</t>
+  </si>
+  <si>
+    <t>956000015724438</t>
+  </si>
+  <si>
+    <t>-43.8673646,173.0083259</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-11 15.28.32.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1wtwpIjjkvmyT1JY9NY7NmnfDzPbk_lWq</t>
+  </si>
+  <si>
+    <t>QFRISHI4TFM4WVU3T2pvVVAzSyo</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>DUMMY</t>
+  </si>
+  <si>
+    <t>dummy number to represent unmarked birds</t>
+  </si>
+  <si>
+    <t>KVB3SFZlKWs5QEFvQldVPFQjVkk</t>
+  </si>
+  <si>
+    <t>956000015725710</t>
+  </si>
+  <si>
+    <t>-43.867365,173.0083258</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-17 11.00.31.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1sF8RHKJV1AChH_dK0W2sN5mMdBbrn1Vn</t>
+  </si>
+  <si>
+    <t>UkdPbXc8YWt3UkV5LTdpKGpoKzg</t>
+  </si>
+  <si>
+    <t>956000015690668</t>
+  </si>
+  <si>
+    <t>-43.8699267,173.00916</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-17 12.30.36.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small notch in flipper, old wound. tough skin and insertion </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ltPuJLJ9OmBc9XSLX77RA980k6K8gcbt</t>
+  </si>
+  <si>
+    <t>KnVldCYrKkA7OGFVTnUtS2dZK3Q</t>
+  </si>
+  <si>
+    <t>956000015723139</t>
+  </si>
+  <si>
+    <t>-43.8673647,173.0083192</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-17 13.29.37.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1clUbb79SMkSgVBRMZtzxCLRDcIOHlZ5g</t>
+  </si>
+  <si>
+    <t>KiVzSUcqRCNOSjFGMHZrXUxbR08</t>
+  </si>
+  <si>
+    <t>956000015726450</t>
+  </si>
+  <si>
+    <t>-43.86948,173.0091533</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-17 13.51.29.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1oEVhW9sJeibuoGIlnOP6yK5PT28hv7QX</t>
+  </si>
+  <si>
+    <t>WVl4KjdrbkxWTHdIakQ-PE46eDM</t>
+  </si>
+  <si>
+    <t>956000015839525</t>
+  </si>
+  <si>
+    <t>-43.8685633,173.0087567</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-18 10.55.17.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1ElkRT0FpktX10qpBFsw6OQfozHW2ni2p</t>
+  </si>
+  <si>
+    <t>VyoraHlYYkdjb3JuYUBkc0BZN2w</t>
+  </si>
+  <si>
+    <t>956000015820652</t>
+  </si>
+  <si>
+    <t>-43.868057,173.0065896</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-18 13.33.40.jpg</t>
+  </si>
+  <si>
+    <t>though insertion</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1W7AJO3blTSTLN2UfjekRVEHGlFn1vnur</t>
+  </si>
+  <si>
+    <t>Jmg6cGIqJkhLV0ZUVzZFdzwxI0k</t>
+  </si>
+  <si>
+    <t>956000015821761</t>
+  </si>
+  <si>
+    <t>-43.8678867,173.0059067</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-18 13.53.51.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=19vaE1gKDYSRB4ayNebG1EXZOlkj8uX43</t>
+  </si>
+  <si>
+    <t>QG1wWVlpdV0hUTFXKSUzKEJaRFg</t>
+  </si>
+  <si>
+    <t>956000015711851</t>
+  </si>
+  <si>
+    <t>-43.8678117,173.0056883</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-18 14.11.33.jpg</t>
+  </si>
+  <si>
+    <t>shallow insertion Needle didn't go all the way in</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1Tu2q6Rt0fGeFFkavaLbcp_D96N_8Ir50</t>
+  </si>
+  <si>
+    <t>WGJxKSpMdnMyRmFkT2o5VXh2dmo</t>
+  </si>
+  <si>
+    <t>956000015720452</t>
+  </si>
+  <si>
+    <t>-43.870785,173.00972</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-25 13.40.16.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1WtuqC_vtTfEsONg2MSqztk93l3KNR1o1</t>
+  </si>
+  <si>
+    <t>UTJUd1BZI01XJmJ4ckkhR0JRRGU</t>
+  </si>
+  <si>
+    <t>956000015693824</t>
+  </si>
+  <si>
+    <t>-43.8683417,173.0088933</t>
+  </si>
+  <si>
+    <t>file:///storage/emulated/0/memento/files/940088960/2022-10-26 10.41.34.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1XxDdiGPE8dICwD-zl_49Ql0h-ciY3z6L</t>
+  </si>
+  <si>
+    <t>KlE4VllsMyMja3B2cndYZExEQDM</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2990,7 @@
         <v>46</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M9" s="4">
         <v>1400.0</v>
@@ -6368,7 +6668,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -10254,7 +10554,7 @@
         <v>459</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>39</v>
+        <v>460</v>
       </c>
       <c r="U74" s="3" t="s">
         <v>39</v>
@@ -10302,18 +10602,18 @@
         <v>39</v>
       </c>
       <c r="AJ74" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK74" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AL74" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>39</v>
@@ -10328,7 +10628,7 @@
         <v>44844.602298854166</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>42</v>
@@ -10340,7 +10640,7 @@
         <v>44</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>46</v>
@@ -10367,10 +10667,10 @@
         <v>39</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="U75" s="3" t="s">
         <v>39</v>
@@ -10418,18 +10718,18 @@
         <v>39</v>
       </c>
       <c r="AJ75" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AL75" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>39</v>
@@ -10444,7 +10744,7 @@
         <v>44844.61653186342</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>42</v>
@@ -10456,7 +10756,7 @@
         <v>44</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>46</v>
@@ -10483,407 +10783,2269 @@
         <v>39</v>
       </c>
       <c r="S76" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ76" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AK76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL76" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="3">
+        <v>44845.45143177083</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1040.0</v>
+      </c>
+      <c r="N77" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="O77" s="4">
+        <v>36.7</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ77" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AK77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL77" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="3">
+        <v>44845.462213321756</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M78" s="4">
+        <v>1260.0</v>
+      </c>
+      <c r="N78" s="4">
+        <v>17.6</v>
+      </c>
+      <c r="O78" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ78" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL78" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="3">
+        <v>44845.48994854167</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M79" s="4">
+        <v>860.0</v>
+      </c>
+      <c r="N79" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="O79" s="4">
+        <v>34.2</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ79" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL79" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44845.497978391206</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1160.0</v>
+      </c>
+      <c r="N80" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="O80" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ80" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL80" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44845.55521597222</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1220.0</v>
+      </c>
+      <c r="N81" s="4">
+        <v>16.4</v>
+      </c>
+      <c r="O81" s="4">
+        <v>38.3</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ81" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="AK81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL81" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="3">
+        <v>44845.60397175926</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M82" s="4">
+        <v>920.0</v>
+      </c>
+      <c r="N82" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="O82" s="4">
+        <v>36.2</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ82" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="AK82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL82" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44845.62898252315</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M83" s="4">
+        <v>1100.0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="O83" s="4">
+        <v>32.2</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL83" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="3">
+        <v>44845.642613703705</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M84" s="4">
+        <v>1180.0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O84" s="4">
+        <v>34.1</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ84" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL84" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="3">
+        <v>44846.84782030093</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL85" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="3">
+        <v>44851.4566630787</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M86" s="4">
+        <v>1100.0</v>
+      </c>
+      <c r="N86" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="O86" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ86" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL86" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="3">
+        <v>44851.51823255787</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M87" s="4">
+        <v>1200.0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>17.4</v>
+      </c>
+      <c r="O87" s="4">
+        <v>40.7</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ87" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="AK87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL87" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="3">
+        <v>44851.56074502315</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M88" s="4">
+        <v>1120.0</v>
+      </c>
+      <c r="N88" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="O88" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG88" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ88" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="AK88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL88" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44851.575507291665</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="T76" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ76" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AK76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL76" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="E77" s="8"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="U77" s="8"/>
-      <c r="AB77" s="9"/>
-      <c r="AC77" s="9"/>
-      <c r="AD77" s="9"/>
-      <c r="AE77" s="9"/>
-      <c r="AF77" s="9"/>
-      <c r="AG77" s="9"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="E78" s="8"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="U78" s="8"/>
-      <c r="AB78" s="9"/>
-      <c r="AC78" s="9"/>
-      <c r="AD78" s="9"/>
-      <c r="AE78" s="9"/>
-      <c r="AF78" s="9"/>
-      <c r="AG78" s="9"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="E79" s="8"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="U79" s="8"/>
-      <c r="AB79" s="9"/>
-      <c r="AC79" s="9"/>
-      <c r="AD79" s="9"/>
-      <c r="AE79" s="9"/>
-      <c r="AF79" s="9"/>
-      <c r="AG79" s="9"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="E80" s="8"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="U80" s="8"/>
-      <c r="AB80" s="9"/>
-      <c r="AC80" s="9"/>
-      <c r="AD80" s="9"/>
-      <c r="AE80" s="9"/>
-      <c r="AF80" s="9"/>
-      <c r="AG80" s="9"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="E81" s="8"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="U81" s="8"/>
-      <c r="AB81" s="9"/>
-      <c r="AC81" s="9"/>
-      <c r="AD81" s="9"/>
-      <c r="AE81" s="9"/>
-      <c r="AF81" s="9"/>
-      <c r="AG81" s="9"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="E82" s="8"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="U82" s="8"/>
-      <c r="AB82" s="9"/>
-      <c r="AC82" s="9"/>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="9"/>
-      <c r="AF82" s="9"/>
-      <c r="AG82" s="9"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="E83" s="8"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="U83" s="8"/>
-      <c r="AB83" s="9"/>
-      <c r="AC83" s="9"/>
-      <c r="AD83" s="9"/>
-      <c r="AE83" s="9"/>
-      <c r="AF83" s="9"/>
-      <c r="AG83" s="9"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="E84" s="8"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="U84" s="8"/>
-      <c r="AB84" s="9"/>
-      <c r="AC84" s="9"/>
-      <c r="AD84" s="9"/>
-      <c r="AE84" s="9"/>
-      <c r="AF84" s="9"/>
-      <c r="AG84" s="9"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="E85" s="8"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="U85" s="8"/>
-      <c r="AB85" s="9"/>
-      <c r="AC85" s="9"/>
-      <c r="AD85" s="9"/>
-      <c r="AE85" s="9"/>
-      <c r="AF85" s="9"/>
-      <c r="AG85" s="9"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="E86" s="8"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="U86" s="8"/>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-      <c r="AD86" s="9"/>
-      <c r="AE86" s="9"/>
-      <c r="AF86" s="9"/>
-      <c r="AG86" s="9"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="E87" s="8"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="U87" s="8"/>
-      <c r="AB87" s="9"/>
-      <c r="AC87" s="9"/>
-      <c r="AD87" s="9"/>
-      <c r="AE87" s="9"/>
-      <c r="AF87" s="9"/>
-      <c r="AG87" s="9"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="E88" s="8"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="9"/>
-      <c r="U88" s="8"/>
-      <c r="AB88" s="9"/>
-      <c r="AC88" s="9"/>
-      <c r="AD88" s="9"/>
-      <c r="AE88" s="9"/>
-      <c r="AF88" s="9"/>
-      <c r="AG88" s="9"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="E89" s="8"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-      <c r="U89" s="8"/>
-      <c r="AB89" s="9"/>
-      <c r="AC89" s="9"/>
-      <c r="AD89" s="9"/>
-      <c r="AE89" s="9"/>
-      <c r="AF89" s="9"/>
-      <c r="AG89" s="9"/>
+      <c r="K89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1200.0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="O89" s="4">
+        <v>34.8</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ89" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="AK89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL89" s="2" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="E90" s="8"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="U90" s="8"/>
-      <c r="AB90" s="9"/>
-      <c r="AC90" s="9"/>
-      <c r="AD90" s="9"/>
-      <c r="AE90" s="9"/>
-      <c r="AF90" s="9"/>
-      <c r="AG90" s="9"/>
+      <c r="A90" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="3">
+        <v>44852.4497628125</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M90" s="4">
+        <v>1040.0</v>
+      </c>
+      <c r="N90" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O90" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ90" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AK90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL90" s="2" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="E91" s="8"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="U91" s="8"/>
-      <c r="AB91" s="9"/>
-      <c r="AC91" s="9"/>
-      <c r="AD91" s="9"/>
-      <c r="AE91" s="9"/>
-      <c r="AF91" s="9"/>
-      <c r="AG91" s="9"/>
+      <c r="A91" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="3">
+        <v>44852.562682372685</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M91" s="4">
+        <v>1020.0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="O91" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ91" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AK91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL91" s="2" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="E92" s="8"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="U92" s="8"/>
-      <c r="AB92" s="9"/>
-      <c r="AC92" s="9"/>
-      <c r="AD92" s="9"/>
-      <c r="AE92" s="9"/>
-      <c r="AF92" s="9"/>
-      <c r="AG92" s="9"/>
+      <c r="A92" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="3">
+        <v>44852.57652679398</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M92" s="4">
+        <v>1020.0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>16.1</v>
+      </c>
+      <c r="O92" s="4">
+        <v>33.3</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ92" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL92" s="2" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="E93" s="8"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="U93" s="8"/>
-      <c r="AB93" s="9"/>
-      <c r="AC93" s="9"/>
-      <c r="AD93" s="9"/>
-      <c r="AE93" s="9"/>
-      <c r="AF93" s="9"/>
-      <c r="AG93" s="9"/>
+      <c r="A93" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="3">
+        <v>44852.587522395836</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1140.0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="O93" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ93" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AK93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL93" s="2" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="E94" s="8"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="U94" s="8"/>
-      <c r="AB94" s="9"/>
-      <c r="AC94" s="9"/>
-      <c r="AD94" s="9"/>
-      <c r="AE94" s="9"/>
-      <c r="AF94" s="9"/>
-      <c r="AG94" s="9"/>
+      <c r="A94" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="3">
+        <v>44859.56822770833</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M94" s="4">
+        <v>1100.0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="O94" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ94" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="AK94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL94" s="2" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="E95" s="8"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="U95" s="8"/>
-      <c r="AB95" s="9"/>
-      <c r="AC95" s="9"/>
-      <c r="AD95" s="9"/>
-      <c r="AE95" s="9"/>
-      <c r="AF95" s="9"/>
-      <c r="AG95" s="9"/>
+      <c r="A95" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="3">
+        <v>44860.44268907407</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M95" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="O95" s="4">
+        <v>37.0</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ95" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AK95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL95" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="7"/>
@@ -28524,6 +30686,348 @@
       <c r="AE1075" s="9"/>
       <c r="AF1075" s="9"/>
       <c r="AG1075" s="9"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="7"/>
+      <c r="B1076" s="7"/>
+      <c r="E1076" s="8"/>
+      <c r="M1076" s="9"/>
+      <c r="N1076" s="9"/>
+      <c r="O1076" s="9"/>
+      <c r="P1076" s="9"/>
+      <c r="Q1076" s="9"/>
+      <c r="R1076" s="9"/>
+      <c r="U1076" s="8"/>
+      <c r="AB1076" s="9"/>
+      <c r="AC1076" s="9"/>
+      <c r="AD1076" s="9"/>
+      <c r="AE1076" s="9"/>
+      <c r="AF1076" s="9"/>
+      <c r="AG1076" s="9"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="7"/>
+      <c r="B1077" s="7"/>
+      <c r="E1077" s="8"/>
+      <c r="M1077" s="9"/>
+      <c r="N1077" s="9"/>
+      <c r="O1077" s="9"/>
+      <c r="P1077" s="9"/>
+      <c r="Q1077" s="9"/>
+      <c r="R1077" s="9"/>
+      <c r="U1077" s="8"/>
+      <c r="AB1077" s="9"/>
+      <c r="AC1077" s="9"/>
+      <c r="AD1077" s="9"/>
+      <c r="AE1077" s="9"/>
+      <c r="AF1077" s="9"/>
+      <c r="AG1077" s="9"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="7"/>
+      <c r="B1078" s="7"/>
+      <c r="E1078" s="8"/>
+      <c r="M1078" s="9"/>
+      <c r="N1078" s="9"/>
+      <c r="O1078" s="9"/>
+      <c r="P1078" s="9"/>
+      <c r="Q1078" s="9"/>
+      <c r="R1078" s="9"/>
+      <c r="U1078" s="8"/>
+      <c r="AB1078" s="9"/>
+      <c r="AC1078" s="9"/>
+      <c r="AD1078" s="9"/>
+      <c r="AE1078" s="9"/>
+      <c r="AF1078" s="9"/>
+      <c r="AG1078" s="9"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="7"/>
+      <c r="B1079" s="7"/>
+      <c r="E1079" s="8"/>
+      <c r="M1079" s="9"/>
+      <c r="N1079" s="9"/>
+      <c r="O1079" s="9"/>
+      <c r="P1079" s="9"/>
+      <c r="Q1079" s="9"/>
+      <c r="R1079" s="9"/>
+      <c r="U1079" s="8"/>
+      <c r="AB1079" s="9"/>
+      <c r="AC1079" s="9"/>
+      <c r="AD1079" s="9"/>
+      <c r="AE1079" s="9"/>
+      <c r="AF1079" s="9"/>
+      <c r="AG1079" s="9"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="7"/>
+      <c r="B1080" s="7"/>
+      <c r="E1080" s="8"/>
+      <c r="M1080" s="9"/>
+      <c r="N1080" s="9"/>
+      <c r="O1080" s="9"/>
+      <c r="P1080" s="9"/>
+      <c r="Q1080" s="9"/>
+      <c r="R1080" s="9"/>
+      <c r="U1080" s="8"/>
+      <c r="AB1080" s="9"/>
+      <c r="AC1080" s="9"/>
+      <c r="AD1080" s="9"/>
+      <c r="AE1080" s="9"/>
+      <c r="AF1080" s="9"/>
+      <c r="AG1080" s="9"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="7"/>
+      <c r="B1081" s="7"/>
+      <c r="E1081" s="8"/>
+      <c r="M1081" s="9"/>
+      <c r="N1081" s="9"/>
+      <c r="O1081" s="9"/>
+      <c r="P1081" s="9"/>
+      <c r="Q1081" s="9"/>
+      <c r="R1081" s="9"/>
+      <c r="U1081" s="8"/>
+      <c r="AB1081" s="9"/>
+      <c r="AC1081" s="9"/>
+      <c r="AD1081" s="9"/>
+      <c r="AE1081" s="9"/>
+      <c r="AF1081" s="9"/>
+      <c r="AG1081" s="9"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="7"/>
+      <c r="B1082" s="7"/>
+      <c r="E1082" s="8"/>
+      <c r="M1082" s="9"/>
+      <c r="N1082" s="9"/>
+      <c r="O1082" s="9"/>
+      <c r="P1082" s="9"/>
+      <c r="Q1082" s="9"/>
+      <c r="R1082" s="9"/>
+      <c r="U1082" s="8"/>
+      <c r="AB1082" s="9"/>
+      <c r="AC1082" s="9"/>
+      <c r="AD1082" s="9"/>
+      <c r="AE1082" s="9"/>
+      <c r="AF1082" s="9"/>
+      <c r="AG1082" s="9"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="7"/>
+      <c r="B1083" s="7"/>
+      <c r="E1083" s="8"/>
+      <c r="M1083" s="9"/>
+      <c r="N1083" s="9"/>
+      <c r="O1083" s="9"/>
+      <c r="P1083" s="9"/>
+      <c r="Q1083" s="9"/>
+      <c r="R1083" s="9"/>
+      <c r="U1083" s="8"/>
+      <c r="AB1083" s="9"/>
+      <c r="AC1083" s="9"/>
+      <c r="AD1083" s="9"/>
+      <c r="AE1083" s="9"/>
+      <c r="AF1083" s="9"/>
+      <c r="AG1083" s="9"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="7"/>
+      <c r="B1084" s="7"/>
+      <c r="E1084" s="8"/>
+      <c r="M1084" s="9"/>
+      <c r="N1084" s="9"/>
+      <c r="O1084" s="9"/>
+      <c r="P1084" s="9"/>
+      <c r="Q1084" s="9"/>
+      <c r="R1084" s="9"/>
+      <c r="U1084" s="8"/>
+      <c r="AB1084" s="9"/>
+      <c r="AC1084" s="9"/>
+      <c r="AD1084" s="9"/>
+      <c r="AE1084" s="9"/>
+      <c r="AF1084" s="9"/>
+      <c r="AG1084" s="9"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="7"/>
+      <c r="B1085" s="7"/>
+      <c r="E1085" s="8"/>
+      <c r="M1085" s="9"/>
+      <c r="N1085" s="9"/>
+      <c r="O1085" s="9"/>
+      <c r="P1085" s="9"/>
+      <c r="Q1085" s="9"/>
+      <c r="R1085" s="9"/>
+      <c r="U1085" s="8"/>
+      <c r="AB1085" s="9"/>
+      <c r="AC1085" s="9"/>
+      <c r="AD1085" s="9"/>
+      <c r="AE1085" s="9"/>
+      <c r="AF1085" s="9"/>
+      <c r="AG1085" s="9"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="7"/>
+      <c r="B1086" s="7"/>
+      <c r="E1086" s="8"/>
+      <c r="M1086" s="9"/>
+      <c r="N1086" s="9"/>
+      <c r="O1086" s="9"/>
+      <c r="P1086" s="9"/>
+      <c r="Q1086" s="9"/>
+      <c r="R1086" s="9"/>
+      <c r="U1086" s="8"/>
+      <c r="AB1086" s="9"/>
+      <c r="AC1086" s="9"/>
+      <c r="AD1086" s="9"/>
+      <c r="AE1086" s="9"/>
+      <c r="AF1086" s="9"/>
+      <c r="AG1086" s="9"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="7"/>
+      <c r="B1087" s="7"/>
+      <c r="E1087" s="8"/>
+      <c r="M1087" s="9"/>
+      <c r="N1087" s="9"/>
+      <c r="O1087" s="9"/>
+      <c r="P1087" s="9"/>
+      <c r="Q1087" s="9"/>
+      <c r="R1087" s="9"/>
+      <c r="U1087" s="8"/>
+      <c r="AB1087" s="9"/>
+      <c r="AC1087" s="9"/>
+      <c r="AD1087" s="9"/>
+      <c r="AE1087" s="9"/>
+      <c r="AF1087" s="9"/>
+      <c r="AG1087" s="9"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="7"/>
+      <c r="B1088" s="7"/>
+      <c r="E1088" s="8"/>
+      <c r="M1088" s="9"/>
+      <c r="N1088" s="9"/>
+      <c r="O1088" s="9"/>
+      <c r="P1088" s="9"/>
+      <c r="Q1088" s="9"/>
+      <c r="R1088" s="9"/>
+      <c r="U1088" s="8"/>
+      <c r="AB1088" s="9"/>
+      <c r="AC1088" s="9"/>
+      <c r="AD1088" s="9"/>
+      <c r="AE1088" s="9"/>
+      <c r="AF1088" s="9"/>
+      <c r="AG1088" s="9"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="7"/>
+      <c r="B1089" s="7"/>
+      <c r="E1089" s="8"/>
+      <c r="M1089" s="9"/>
+      <c r="N1089" s="9"/>
+      <c r="O1089" s="9"/>
+      <c r="P1089" s="9"/>
+      <c r="Q1089" s="9"/>
+      <c r="R1089" s="9"/>
+      <c r="U1089" s="8"/>
+      <c r="AB1089" s="9"/>
+      <c r="AC1089" s="9"/>
+      <c r="AD1089" s="9"/>
+      <c r="AE1089" s="9"/>
+      <c r="AF1089" s="9"/>
+      <c r="AG1089" s="9"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="7"/>
+      <c r="B1090" s="7"/>
+      <c r="E1090" s="8"/>
+      <c r="M1090" s="9"/>
+      <c r="N1090" s="9"/>
+      <c r="O1090" s="9"/>
+      <c r="P1090" s="9"/>
+      <c r="Q1090" s="9"/>
+      <c r="R1090" s="9"/>
+      <c r="U1090" s="8"/>
+      <c r="AB1090" s="9"/>
+      <c r="AC1090" s="9"/>
+      <c r="AD1090" s="9"/>
+      <c r="AE1090" s="9"/>
+      <c r="AF1090" s="9"/>
+      <c r="AG1090" s="9"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="7"/>
+      <c r="B1091" s="7"/>
+      <c r="E1091" s="8"/>
+      <c r="M1091" s="9"/>
+      <c r="N1091" s="9"/>
+      <c r="O1091" s="9"/>
+      <c r="P1091" s="9"/>
+      <c r="Q1091" s="9"/>
+      <c r="R1091" s="9"/>
+      <c r="U1091" s="8"/>
+      <c r="AB1091" s="9"/>
+      <c r="AC1091" s="9"/>
+      <c r="AD1091" s="9"/>
+      <c r="AE1091" s="9"/>
+      <c r="AF1091" s="9"/>
+      <c r="AG1091" s="9"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="7"/>
+      <c r="B1092" s="7"/>
+      <c r="E1092" s="8"/>
+      <c r="M1092" s="9"/>
+      <c r="N1092" s="9"/>
+      <c r="O1092" s="9"/>
+      <c r="P1092" s="9"/>
+      <c r="Q1092" s="9"/>
+      <c r="R1092" s="9"/>
+      <c r="U1092" s="8"/>
+      <c r="AB1092" s="9"/>
+      <c r="AC1092" s="9"/>
+      <c r="AD1092" s="9"/>
+      <c r="AE1092" s="9"/>
+      <c r="AF1092" s="9"/>
+      <c r="AG1092" s="9"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="7"/>
+      <c r="B1093" s="7"/>
+      <c r="E1093" s="8"/>
+      <c r="M1093" s="9"/>
+      <c r="N1093" s="9"/>
+      <c r="O1093" s="9"/>
+      <c r="P1093" s="9"/>
+      <c r="Q1093" s="9"/>
+      <c r="R1093" s="9"/>
+      <c r="U1093" s="8"/>
+      <c r="AB1093" s="9"/>
+      <c r="AC1093" s="9"/>
+      <c r="AD1093" s="9"/>
+      <c r="AE1093" s="9"/>
+      <c r="AF1093" s="9"/>
+      <c r="AG1093" s="9"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="7"/>
+      <c r="B1094" s="7"/>
+      <c r="E1094" s="8"/>
+      <c r="M1094" s="9"/>
+      <c r="N1094" s="9"/>
+      <c r="O1094" s="9"/>
+      <c r="P1094" s="9"/>
+      <c r="Q1094" s="9"/>
+      <c r="R1094" s="9"/>
+      <c r="U1094" s="8"/>
+      <c r="AB1094" s="9"/>
+      <c r="AC1094" s="9"/>
+      <c r="AD1094" s="9"/>
+      <c r="AE1094" s="9"/>
+      <c r="AF1094" s="9"/>
+      <c r="AG1094" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28599,7 +31103,24 @@
     <hyperlink r:id="rId70" ref="AJ74"/>
     <hyperlink r:id="rId71" ref="AJ75"/>
     <hyperlink r:id="rId72" ref="AJ76"/>
+    <hyperlink r:id="rId73" ref="AJ77"/>
+    <hyperlink r:id="rId74" ref="AJ78"/>
+    <hyperlink r:id="rId75" ref="AJ79"/>
+    <hyperlink r:id="rId76" ref="AJ80"/>
+    <hyperlink r:id="rId77" ref="AJ81"/>
+    <hyperlink r:id="rId78" ref="AJ82"/>
+    <hyperlink r:id="rId79" ref="AJ84"/>
+    <hyperlink r:id="rId80" ref="AJ86"/>
+    <hyperlink r:id="rId81" ref="AJ87"/>
+    <hyperlink r:id="rId82" ref="AJ88"/>
+    <hyperlink r:id="rId83" ref="AJ89"/>
+    <hyperlink r:id="rId84" ref="AJ90"/>
+    <hyperlink r:id="rId85" ref="AJ91"/>
+    <hyperlink r:id="rId86" ref="AJ92"/>
+    <hyperlink r:id="rId87" ref="AJ93"/>
+    <hyperlink r:id="rId88" ref="AJ94"/>
+    <hyperlink r:id="rId89" ref="AJ95"/>
   </hyperlinks>
-  <drawing r:id="rId73"/>
+  <drawing r:id="rId90"/>
 </worksheet>
 </file>